--- a/assets/External.xlsx
+++ b/assets/External.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shelterwa.sharepoint.com/sites/ShelterWA/Shared Documents/Data/SOURCE OF TRUTH/DASHBOARD PROJECT/PROD/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{75826168-519E-4EAA-8DD4-708FBA9B56BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C38018-CF60-46BF-8BCE-376913ECC21B}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{75826168-519E-4EAA-8DD4-708FBA9B56BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C515E25-4A5C-4574-9C43-2A3ED7C28210}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40AB96E4-9933-4012-808F-5B86F9C572D2}"/>
+    <workbookView xWindow="28680" yWindow="-2985" windowWidth="29040" windowHeight="15840" xr2:uid="{40AB96E4-9933-4012-808F-5B86F9C572D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>File</t>
   </si>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>South West and Great Southern Rental Affordability</t>
+  </si>
+  <si>
+    <t>https://www.endhomelessnesswa.com/bynamelist-datapage</t>
+  </si>
+  <si>
+    <t>Visit by-name list site</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Anglicare Rental Affordability Snapshot</t>
+  </si>
+  <si>
+    <t>Misc. links</t>
   </si>
 </sst>
 </file>
@@ -429,71 +453,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500048B0-01CE-46CD-9A9E-99E87C031319}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="66" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
